--- a/medicine/Pharmacie/Wyeth/Wyeth.xlsx
+++ b/medicine/Pharmacie/Wyeth/Wyeth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Wyeth était une entreprise pharmaceutique américaine. Elle était l'une des plus grandes sociétés pharmaceutiques au monde avant son rachat par Pfizer.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le groupe détenait 17 % du marché mondial de vaccins[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le groupe détenait 17 % du marché mondial de vaccins.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 25 janvier 2009, Wyeth a officiellement acceptée d'être acquise par Pfizer pour un montant de 68 milliards USD[2].
-En août 2009, pendant une poursuite judiciaire contre Wyeth, des documents ont démontré que Wyeth avait eu recours à des rédacteurs anonymes pour rédiger des articles scientifiques démontrant les avantages d'un traitement aux hormones synthétiques. Une étude fédérale américaine, arrêtée en 2002, a démontré que ce traitement augmentait les risques de cancer du sein, de maladies du cœur et de crises cardiaques[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 25 janvier 2009, Wyeth a officiellement acceptée d'être acquise par Pfizer pour un montant de 68 milliards USD.
+En août 2009, pendant une poursuite judiciaire contre Wyeth, des documents ont démontré que Wyeth avait eu recours à des rédacteurs anonymes pour rédiger des articles scientifiques démontrant les avantages d'un traitement aux hormones synthétiques. Une étude fédérale américaine, arrêtée en 2002, a démontré que ce traitement augmentait les risques de cancer du sein, de maladies du cœur et de crises cardiaques.
 </t>
         </is>
       </c>
